--- a/Output_analysis/Linear_regression_with_PCA_cluster_number_3.xlsx
+++ b/Output_analysis/Linear_regression_with_PCA_cluster_number_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J49"/>
+  <dimension ref="A1:J51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,7 +485,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,26 +494,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Control of Corruption: Estimate</t>
+          <t>Rural population (% of total population)</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>0.0006933415818243427</v>
+        <v>0.02898519979476777</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5606967745747773</v>
+        <v>22.75131685829429</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4380356808502799</v>
+        <v>0.3959940780477849</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005840853736533915</v>
+        <v>0.001905424521392422</v>
       </c>
       <c r="I2" t="n">
-        <v>0.0001901441407514879</v>
+        <v>0.008902511954626973</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4380356808502799</v>
+        <v>0.3959940780477849</v>
       </c>
     </row>
     <row r="3">
@@ -521,7 +521,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -530,26 +530,26 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Corruption index 2023</t>
+          <t>GDP per capita, PPP (constant 2021 international $)</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>0.008747384088253981</v>
+        <v>-28.90039530052819</v>
       </c>
       <c r="F3" t="n">
-        <v>36.6318974605221</v>
+        <v>44373.99621505815</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4013127957995508</v>
+        <v>-0.351408653645471</v>
       </c>
       <c r="H3" t="n">
-        <v>0.001631870857651247</v>
+        <v>0.007915049172453642</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002644388702057665</v>
+        <v>10.47787888010241</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4013127957995508</v>
+        <v>0.351408653645471</v>
       </c>
     </row>
     <row r="4">
@@ -557,7 +557,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -566,26 +566,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Current account balance (% of GDP)</t>
+          <t>precipitation (mm per year)</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>-0.003206582581528268</v>
+        <v>0.8590773855541984</v>
       </c>
       <c r="F4" t="n">
-        <v>-3.384273743461758</v>
+        <v>852.1973703354089</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.3488142848290779</v>
+        <v>0.3442099450243932</v>
       </c>
       <c r="H4" t="n">
-        <v>0.007831839935455507</v>
+        <v>0.009386637950710526</v>
       </c>
       <c r="I4" t="n">
-        <v>0.001161703594596116</v>
+        <v>0.3188804969417865</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3488142848290779</v>
+        <v>0.3442099450243932</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -602,26 +602,26 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Industry (including construction), value added (% of GDP)</t>
+          <t>Central government debt, total (% of GDP)</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.006415302438046605</v>
+        <v>0.06439734129538043</v>
       </c>
       <c r="F5" t="n">
-        <v>26.68565202280593</v>
+        <v>37.73386703310583</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3400850168277622</v>
+        <v>0.3236872108261772</v>
       </c>
       <c r="H5" t="n">
-        <v>0.006841549052612006</v>
+        <v>0.01404293473998097</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002290151334422958</v>
+        <v>0.02538209929856155</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3400850168277622</v>
+        <v>0.3236872108261772</v>
       </c>
     </row>
     <row r="6">
@@ -629,7 +629,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -638,26 +638,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Death rate, crude (per 1,000 people)</t>
+          <t>Educational attainment, at least Master's or equivalent, population 25+, total (%) (cumulative)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>0.001285901749736106</v>
+        <v>-0.01093747447593413</v>
       </c>
       <c r="F6" t="n">
-        <v>6.781707234915837</v>
+        <v>11.3098551734633</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3188849338975481</v>
+        <v>-0.3236242421442649</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0166023500489068</v>
+        <v>0.01240872837291948</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0005201044905045438</v>
+        <v>0.004235600114667913</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3188849338975481</v>
+        <v>0.3236242421442649</v>
       </c>
     </row>
     <row r="7">
@@ -665,7 +665,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -674,26 +674,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Armed forces (% labor force)</t>
+          <t>Human capital index (HCI) (scale 0-1)</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>-0.000561985010194641</v>
+        <v>-0.0001174716795533624</v>
       </c>
       <c r="F7" t="n">
-        <v>1.201524146012959</v>
+        <v>0.7282576591064179</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3077995994503175</v>
+        <v>-0.3022129279876685</v>
       </c>
       <c r="H7" t="n">
-        <v>0.01984782449814135</v>
+        <v>0.02112831303591081</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0002342404317470201</v>
+        <v>4.951406550206197e-05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3077995994503175</v>
+        <v>0.3022129279876685</v>
       </c>
     </row>
     <row r="8">
@@ -701,7 +701,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -710,26 +710,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>% Firms using banks</t>
+          <t>OCDE</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-0.008234555834834829</v>
+        <v>-0.0006663824337240137</v>
       </c>
       <c r="F8" t="n">
-        <v>15.08378539671236</v>
+        <v>0.6754261173557357</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2920250046701494</v>
+        <v>-0.2898545788864312</v>
       </c>
       <c r="H8" t="n">
-        <v>0.02021504575793428</v>
+        <v>0.02595925771913103</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003453024347381794</v>
+        <v>0.0002914405430489204</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2920250046701494</v>
+        <v>0.2898545788864312</v>
       </c>
     </row>
     <row r="9">
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -750,22 +750,22 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>-0.0005875464545029879</v>
+        <v>-0.0008942691367024152</v>
       </c>
       <c r="F9" t="n">
-        <v>1.376095555617348</v>
+        <v>1.474254346236749</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2807648497831704</v>
+        <v>-0.2647431074243093</v>
       </c>
       <c r="H9" t="n">
-        <v>0.032774075914115</v>
+        <v>0.05303832981480006</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0002683957365328095</v>
+        <v>0.0004517130332910689</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2807648497831704</v>
+        <v>0.2647431074243093</v>
       </c>
     </row>
     <row r="10">
@@ -773,7 +773,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -782,26 +782,26 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Population growth (annual %)</t>
+          <t>Consumer price index (2010 = 100)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-0.0005648799048548748</v>
+        <v>0.02023262907449786</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8548771674065022</v>
+        <v>120.7269650386671</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.2588850541271076</v>
+        <v>0.2644047069731655</v>
       </c>
       <c r="H10" t="n">
-        <v>0.04217804701852344</v>
+        <v>0.06080160455081913</v>
       </c>
       <c r="I10" t="n">
-        <v>0.0002720879735441819</v>
+        <v>0.01054259735415779</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2588850541271076</v>
+        <v>0.2644047069731655</v>
       </c>
     </row>
     <row r="11">
@@ -809,7 +809,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -818,26 +818,26 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Poverty $3.65 a day (% of population)</t>
+          <t>Total alcohol consumption per capita (liters of pure alcohol, projected estimates, 15+ years of age)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>-0.00270130769484849</v>
+        <v>-0.003542629893660708</v>
       </c>
       <c r="F11" t="n">
-        <v>4.985088493980424</v>
+        <v>9.483828100909143</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2524162246224412</v>
+        <v>-0.2576815051870561</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05593038695373007</v>
+        <v>0.05296945560106424</v>
       </c>
       <c r="I11" t="n">
-        <v>0.001383780007522642</v>
+        <v>0.001791190047105434</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2524162246224412</v>
+        <v>0.2576815051870561</v>
       </c>
     </row>
     <row r="12">
@@ -845,7 +845,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -854,26 +854,26 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>% of total population below 5 meters</t>
+          <t>Expenditure on primary education (% of government expenditure on education)</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>0.001843639456455101</v>
+        <v>0.01626369933836664</v>
       </c>
       <c r="F12" t="n">
-        <v>2.465876110338318</v>
+        <v>18.06591580619094</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2501971332998824</v>
+        <v>0.2492647684493224</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0581966581990853</v>
+        <v>0.05693051433931566</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000953372123029704</v>
+        <v>0.008369348557380836</v>
       </c>
       <c r="J12" t="n">
-        <v>0.2501971332998824</v>
+        <v>0.2492647684493224</v>
       </c>
     </row>
     <row r="13">
@@ -881,7 +881,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -890,26 +890,26 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>GDP per capita (constant 2015 US$)</t>
+          <t>Life expectancy at birth, total (years)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1.456656447138423</v>
+        <v>-0.004465593420991028</v>
       </c>
       <c r="F13" t="n">
-        <v>5456.501153412319</v>
+        <v>79.20706567835455</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2394982171370013</v>
+        <v>-0.2388659373957385</v>
       </c>
       <c r="H13" t="n">
-        <v>0.06302726799882674</v>
+        <v>0.06845792283804064</v>
       </c>
       <c r="I13" t="n">
-        <v>0.768779716201263</v>
+        <v>0.002404530351813571</v>
       </c>
       <c r="J13" t="n">
-        <v>0.2394982171370013</v>
+        <v>0.2388659373957385</v>
       </c>
     </row>
     <row r="14">
@@ -917,7 +917,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -926,26 +926,26 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Population, total</t>
+          <t>Arable land (hectares per person)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>-7359.275411557997</v>
+        <v>-0.0002561789412170842</v>
       </c>
       <c r="F14" t="n">
-        <v>13641749.36605086</v>
+        <v>0.2748525237856301</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2366563531805554</v>
+        <v>-0.2296381475597025</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0819321938259371</v>
+        <v>0.08865590196693768</v>
       </c>
       <c r="I14" t="n">
-        <v>4150.147361152166</v>
+        <v>0.0001477537663005324</v>
       </c>
       <c r="J14" t="n">
-        <v>0.2366563531805554</v>
+        <v>0.2296381475597025</v>
       </c>
     </row>
     <row r="15">
@@ -953,7 +953,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -962,26 +962,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Poverty $2.15 a day (% of population)</t>
+          <t>Population density</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-0.0007628142466373859</v>
+        <v>0.1196727624708586</v>
       </c>
       <c r="F15" t="n">
-        <v>1.330767289572253</v>
+        <v>98.6644419162327</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2361098042677211</v>
+        <v>0.2294994828149693</v>
       </c>
       <c r="H15" t="n">
-        <v>0.06933986669909785</v>
+        <v>0.1017054749258403</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0004122254218474094</v>
+        <v>0.07177599891413905</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2361098042677211</v>
+        <v>0.2294994828149693</v>
       </c>
     </row>
     <row r="16">
@@ -989,7 +989,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -998,26 +998,26 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>GNI per capita (2015 US$)</t>
+          <t>Expenditure on secondary education (% of government expenditure on education)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.192125991363849</v>
+        <v>0.01919224104437956</v>
       </c>
       <c r="F16" t="n">
-        <v>5074.38848448472</v>
+        <v>24.43558702699747</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2324576320200766</v>
+        <v>0.2224429397665134</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07388853937953976</v>
+        <v>0.09038943942831007</v>
       </c>
       <c r="I16" t="n">
-        <v>0.654940019898642</v>
+        <v>0.01114166428897793</v>
       </c>
       <c r="J16" t="n">
-        <v>0.2324576320200766</v>
+        <v>0.2224429397665134</v>
       </c>
     </row>
     <row r="17">
@@ -1025,7 +1025,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1034,26 +1034,26 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Poverty $6.85 a day (% of population)</t>
+          <t>Population in urban agglomerations of more than 1 million (% of total population)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>-0.009659007146784873</v>
+        <v>-0.01856242749058512</v>
       </c>
       <c r="F17" t="n">
-        <v>22.6691641602318</v>
+        <v>22.15465403333234</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2223935810204785</v>
+        <v>-0.2221387391944088</v>
       </c>
       <c r="H17" t="n">
-        <v>0.07979820733354785</v>
+        <v>0.09675829250061228</v>
       </c>
       <c r="I17" t="n">
-        <v>0.005421641172650095</v>
+        <v>0.01098602162957836</v>
       </c>
       <c r="J17" t="n">
-        <v>0.2223935810204785</v>
+        <v>0.2221387391944088</v>
       </c>
     </row>
     <row r="18">
@@ -1061,7 +1061,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1070,26 +1070,26 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>precipitation (mm per year)</t>
+          <t>Armed forces (% labor force)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>0.4399209267971843</v>
+        <v>-0.0005372802717635865</v>
       </c>
       <c r="F18" t="n">
-        <v>1099.510040971505</v>
+        <v>0.9094982531758316</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2207541447597938</v>
+        <v>-0.2030091209164342</v>
       </c>
       <c r="H18" t="n">
-        <v>0.08210267829866086</v>
+        <v>0.1371462002411583</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2488583354670012</v>
+        <v>0.0003559660212895648</v>
       </c>
       <c r="J18" t="n">
-        <v>0.2207541447597938</v>
+        <v>0.2030091209164342</v>
       </c>
     </row>
     <row r="19">
@@ -1097,7 +1097,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1106,26 +1106,26 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Consumer price index (2010 = 100)</t>
+          <t>GDP (constant 2015 US$)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-0.01112364694236786</v>
+        <v>-227012662.2755175</v>
       </c>
       <c r="F19" t="n">
-        <v>141.9745001207606</v>
+        <v>252842767213.4287</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2123100422283028</v>
+        <v>-0.2023815832968926</v>
       </c>
       <c r="H19" t="n">
-        <v>0.119668148663197</v>
+        <v>0.1631429937906255</v>
       </c>
       <c r="I19" t="n">
-        <v>0.007032718438236219</v>
+        <v>160231872.532327</v>
       </c>
       <c r="J19" t="n">
-        <v>0.2123100422283028</v>
+        <v>0.2023815832968926</v>
       </c>
     </row>
     <row r="20">
@@ -1133,7 +1133,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1142,26 +1142,26 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Unemployment advanced education</t>
+          <t>Children out of school (% of primary school age)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>-0.002150253956264889</v>
+        <v>0.002259632232777967</v>
       </c>
       <c r="F20" t="n">
-        <v>7.884496886088664</v>
+        <v>1.829238012574896</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.2042974861417501</v>
+        <v>0.1994805263109592</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1142645356428443</v>
+        <v>0.1404906696175037</v>
       </c>
       <c r="I20" t="n">
-        <v>0.001341352681587478</v>
+        <v>0.001510507643369601</v>
       </c>
       <c r="J20" t="n">
-        <v>0.2042974861417501</v>
+        <v>0.1994805263109592</v>
       </c>
     </row>
     <row r="21">
@@ -1169,7 +1169,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1178,26 +1178,26 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Inflation, consumer prices (annual %)</t>
+          <t>immigration_flow</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-0.001016289462971493</v>
+        <v>6.570362216930405</v>
       </c>
       <c r="F21" t="n">
-        <v>4.088273135431631</v>
+        <v>4208.710993639558</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2016679621325401</v>
+        <v>0.1941960602279537</v>
       </c>
       <c r="H21" t="n">
-        <v>0.1324960042894264</v>
+        <v>0.1720972767185607</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0006655538326449621</v>
+        <v>4.741364762901801</v>
       </c>
       <c r="J21" t="n">
-        <v>0.2016679621325401</v>
+        <v>0.1941960602279537</v>
       </c>
     </row>
     <row r="22">
@@ -1205,7 +1205,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1214,26 +1214,26 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Fertility rate, total (births per woman)</t>
+          <t>GDP growth (annual %)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>-0.000258791743998969</v>
+        <v>-0.001038389804160361</v>
       </c>
       <c r="F22" t="n">
-        <v>2.223145863704297</v>
+        <v>2.472213584193996</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1971798073133393</v>
+        <v>-0.186556254204517</v>
       </c>
       <c r="H22" t="n">
-        <v>0.1213873744645184</v>
+        <v>0.1686074262141838</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0001647448689352168</v>
+        <v>0.000744151995602258</v>
       </c>
       <c r="J22" t="n">
-        <v>0.1971798073133393</v>
+        <v>0.186556254204517</v>
       </c>
     </row>
     <row r="23">
@@ -1241,7 +1241,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1250,26 +1250,26 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Population living in slums (% of urban population)</t>
+          <t>Armed forces personnel, total</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.003426163635164545</v>
+        <v>-65.58260337012209</v>
       </c>
       <c r="F23" t="n">
-        <v>7.612573466943139</v>
+        <v>71263.50666429201</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1951413273006552</v>
+        <v>-0.1842010993605493</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1385749733266588</v>
+        <v>0.1824119002263979</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002280819225054598</v>
+        <v>48.52874392968118</v>
       </c>
       <c r="J23" t="n">
-        <v>0.1951413273006552</v>
+        <v>0.1842010993605493</v>
       </c>
     </row>
     <row r="24">
@@ -1277,7 +1277,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1286,26 +1286,26 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
+          <t>Population, total</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.002671615386186408</v>
+        <v>-13474.53938975672</v>
       </c>
       <c r="F24" t="n">
-        <v>8.931511002441688</v>
+        <v>16657938.38837931</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1930991068620594</v>
+        <v>-0.1600821529534155</v>
       </c>
       <c r="H24" t="n">
-        <v>0.1326552873535682</v>
+        <v>0.2430166337042063</v>
       </c>
       <c r="I24" t="n">
-        <v>0.001752533805753953</v>
+        <v>11412.89586115915</v>
       </c>
       <c r="J24" t="n">
-        <v>0.1930991068620594</v>
+        <v>0.1600821529534155</v>
       </c>
     </row>
     <row r="25">
@@ -1313,7 +1313,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1322,26 +1322,26 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Birth rate, crude (per 1,000 people)</t>
+          <t>Global_Peace_Index_2023</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-0.002182324220012682</v>
+        <v>0.0002118411241573024</v>
       </c>
       <c r="F25" t="n">
-        <v>17.6765570432874</v>
+        <v>1.670042486336809</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.185755495346395</v>
+        <v>0.1491189818951622</v>
       </c>
       <c r="H25" t="n">
-        <v>0.144955447246451</v>
+        <v>0.301344893889594</v>
       </c>
       <c r="I25" t="n">
-        <v>0.001478045064346648</v>
+        <v>0.0002027559654475021</v>
       </c>
       <c r="J25" t="n">
-        <v>0.185755495346395</v>
+        <v>0.1491189818951622</v>
       </c>
     </row>
     <row r="26">
@@ -1349,7 +1349,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1358,26 +1358,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Agricultural land (% )</t>
+          <t>Death rate, crude (per 1,000 people)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-0.007663289194502718</v>
+        <v>-0.002130736985950688</v>
       </c>
       <c r="F26" t="n">
-        <v>40.38814047195897</v>
+        <v>10.12712091076538</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1729266004426281</v>
+        <v>-0.1472710829038649</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1753180742709133</v>
+        <v>0.2656699704006</v>
       </c>
       <c r="I26" t="n">
-        <v>0.005588508788642988</v>
+        <v>0.00189545490027538</v>
       </c>
       <c r="J26" t="n">
-        <v>0.1729266004426281</v>
+        <v>0.1472710829038649</v>
       </c>
     </row>
     <row r="27">
@@ -1385,7 +1385,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1394,26 +1394,26 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Time to start a business (days)</t>
+          <t>GDP per capita (constant 2015 US$)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.003534644881316833</v>
+        <v>-14.4585090436214</v>
       </c>
       <c r="F27" t="n">
-        <v>16.35676361218476</v>
+        <v>30000.73971000794</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1550279584457399</v>
+        <v>-0.1458275245839153</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2495337387320786</v>
+        <v>0.274716744272917</v>
       </c>
       <c r="I27" t="n">
-        <v>0.003037189103169467</v>
+        <v>13.10757662923017</v>
       </c>
       <c r="J27" t="n">
-        <v>0.1550279584457399</v>
+        <v>0.1458275245839153</v>
       </c>
     </row>
     <row r="28">
@@ -1421,7 +1421,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1430,26 +1430,26 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Current health expenditure (% of GDP)</t>
+          <t>Inflation, consumer prices (annual %)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>-0.0006600820024400777</v>
+        <v>0.001057871665376038</v>
       </c>
       <c r="F28" t="n">
-        <v>6.438164283111782</v>
+        <v>3.278812390284557</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1546794840039375</v>
+        <v>0.1392161639014888</v>
       </c>
       <c r="H28" t="n">
-        <v>0.2339394114738028</v>
+        <v>0.3061684252186721</v>
       </c>
       <c r="I28" t="n">
-        <v>0.0005488840370887735</v>
+        <v>0.001023991998691629</v>
       </c>
       <c r="J28" t="n">
-        <v>0.1546794840039375</v>
+        <v>0.1392161639014888</v>
       </c>
     </row>
     <row r="29">
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1466,26 +1466,26 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Central government debt, total (% of GDP)</t>
+          <t>doing business score</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.008862956246378329</v>
+        <v>-0.003371692239762353</v>
       </c>
       <c r="F29" t="n">
-        <v>21.12344154424925</v>
+        <v>76.9150317960363</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1508705739139165</v>
+        <v>-0.1295978531159158</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2498738961978685</v>
+        <v>0.3456642639844236</v>
       </c>
       <c r="I29" t="n">
-        <v>0.007625358294455584</v>
+        <v>0.003543513488971683</v>
       </c>
       <c r="J29" t="n">
-        <v>0.1508705739139165</v>
+        <v>0.1295978531159158</v>
       </c>
     </row>
     <row r="30">
@@ -1493,7 +1493,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1502,26 +1502,26 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">%  Poverty headcount ratio </t>
+          <t>Fertility rate, total (births per woman)</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-0.003226929850122933</v>
+        <v>-0.0001173524515514899</v>
       </c>
       <c r="F30" t="n">
-        <v>14.3251366257536</v>
+        <v>1.563555007920189</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1395804826377405</v>
+        <v>-0.1265698706178388</v>
       </c>
       <c r="H30" t="n">
-        <v>0.275250031724033</v>
+        <v>0.3571455875826071</v>
       </c>
       <c r="I30" t="n">
-        <v>0.002931079102351269</v>
+        <v>0.0001263330689218141</v>
       </c>
       <c r="J30" t="n">
-        <v>0.1395804826377405</v>
+        <v>0.1265698706178388</v>
       </c>
     </row>
     <row r="31">
@@ -1529,7 +1529,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1538,26 +1538,26 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>GDP growth (annual %)</t>
+          <t>Control of Corruption: Estimate</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.0004080877446828659</v>
+        <v>-0.0005168410422137206</v>
       </c>
       <c r="F31" t="n">
-        <v>2.870152709196398</v>
+        <v>0.8625779733096379</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1325776890606602</v>
+        <v>-0.1236811061321303</v>
       </c>
       <c r="H31" t="n">
-        <v>0.3125883282043356</v>
+        <v>0.3506774915525995</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0004006068826865801</v>
+        <v>0.0005492484399523925</v>
       </c>
       <c r="J31" t="n">
-        <v>0.1325776890606602</v>
+        <v>0.1236811061321303</v>
       </c>
     </row>
     <row r="32">
@@ -1565,7 +1565,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>23</v>
+        <v>43</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1574,26 +1574,26 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Human Capital Index</t>
+          <t>Time to start a business (days)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-1.853869233068907e-05</v>
+        <v>-0.003796483758172182</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4210877559914471</v>
+        <v>9.881420614037792</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1272766570289736</v>
+        <v>-0.1233750382577647</v>
       </c>
       <c r="H32" t="n">
-        <v>0.3499024745872525</v>
+        <v>0.3605462528592068</v>
       </c>
       <c r="I32" t="n">
-        <v>1.96601582964981e-05</v>
+        <v>0.00411758148468356</v>
       </c>
       <c r="J32" t="n">
-        <v>0.1272766570289736</v>
+        <v>0.1233750382577647</v>
       </c>
     </row>
     <row r="33">
@@ -1601,7 +1601,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -1610,26 +1610,26 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Government expenditure on education, total (% of GDP)</t>
+          <t>Corruption index 2023</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.0003482212053810289</v>
+        <v>-0.008672727866729292</v>
       </c>
       <c r="F33" t="n">
-        <v>4.279115184739697</v>
+        <v>61.7984440733103</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1173568284481461</v>
+        <v>-0.1160428864735646</v>
       </c>
       <c r="H33" t="n">
-        <v>0.3802998061438849</v>
+        <v>0.3814470839640064</v>
       </c>
       <c r="I33" t="n">
-        <v>0.0003937688554719938</v>
+        <v>0.009832315546911019</v>
       </c>
       <c r="J33" t="n">
-        <v>0.1173568284481461</v>
+        <v>0.1160428864735646</v>
       </c>
     </row>
     <row r="34">
@@ -1637,7 +1637,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -1646,26 +1646,26 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Unemployment intermediate education</t>
+          <t>Birth rate, crude (per 1,000 people)</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.001365862421246142</v>
+        <v>0.0009084288573039909</v>
       </c>
       <c r="F34" t="n">
-        <v>9.408912622089767</v>
+        <v>10.28755914376954</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.1145259953379701</v>
+        <v>0.09957785268027232</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3835766956220753</v>
+        <v>0.4652781682767245</v>
       </c>
       <c r="I34" t="n">
-        <v>0.00155568582312916</v>
+        <v>0.001235285549850244</v>
       </c>
       <c r="J34" t="n">
-        <v>0.1145259953379701</v>
+        <v>0.09957785268027232</v>
       </c>
     </row>
     <row r="35">
@@ -1673,7 +1673,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -1682,26 +1682,26 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Cost of business start-up (% of GNI per capita)</t>
+          <t>Lifetime risk of maternal death (%)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.002118114429136221</v>
+        <v>-1.694301852862624e-05</v>
       </c>
       <c r="F35" t="n">
-        <v>9.234651870641715</v>
+        <v>0.01561373908375992</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1120993502928315</v>
+        <v>-0.09630117070827302</v>
       </c>
       <c r="H35" t="n">
-        <v>0.410763013249444</v>
+        <v>0.4927367498334135</v>
       </c>
       <c r="I35" t="n">
-        <v>0.002555073653202462</v>
+        <v>2.452172003319278e-05</v>
       </c>
       <c r="J35" t="n">
-        <v>0.1120993502928315</v>
+        <v>0.09630117070827302</v>
       </c>
     </row>
     <row r="36">
@@ -1709,7 +1709,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -1718,26 +1718,26 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>clean fuels for cooking (% of population)</t>
+          <t>Educational attainment, at least completed primary, population 25+ years, total (%) (cumulative)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.004255041068344</v>
+        <v>-0.0007159181419707851</v>
       </c>
       <c r="F36" t="n">
-        <v>82.52169122891678</v>
+        <v>98.50648631541191</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1111910144715949</v>
+        <v>-0.09612432855441636</v>
       </c>
       <c r="H36" t="n">
-        <v>0.41026160115666</v>
+        <v>0.4978448512205509</v>
       </c>
       <c r="I36" t="n">
-        <v>0.005128038740292183</v>
+        <v>0.001048405531556452</v>
       </c>
       <c r="J36" t="n">
-        <v>0.1111910144715949</v>
+        <v>0.09612432855441636</v>
       </c>
     </row>
     <row r="37">
@@ -1745,7 +1745,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -1754,26 +1754,26 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>doing business score</t>
+          <t>Access to electricity (% of population)</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.001871861684503797</v>
+        <v>-4.271895286487993e-06</v>
       </c>
       <c r="F37" t="n">
-        <v>64.46755227951108</v>
+        <v>99.9984820709936</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1009043895662156</v>
+        <v>-0.0922134754747379</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4313538489738449</v>
+        <v>0.5375802333060056</v>
       </c>
       <c r="I37" t="n">
-        <v>0.002363069626995039</v>
+        <v>6.87647046748446e-06</v>
       </c>
       <c r="J37" t="n">
-        <v>0.1009043895662156</v>
+        <v>0.0922134754747379</v>
       </c>
     </row>
     <row r="38">
@@ -1781,7 +1781,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -1790,26 +1790,26 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Total debt service (% of GNI)</t>
+          <t>clean fuels for cooking (% of population)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.0006501500458009241</v>
+        <v>7.293624732556124e-05</v>
       </c>
       <c r="F38" t="n">
-        <v>5.183597512971047</v>
+        <v>99.97258511376337</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.09176579252300336</v>
+        <v>0.0860429418889693</v>
       </c>
       <c r="H38" t="n">
-        <v>0.5052002669048887</v>
+        <v>0.5741192747994774</v>
       </c>
       <c r="I38" t="n">
-        <v>0.0009690775036260145</v>
+        <v>0.0001287894623168755</v>
       </c>
       <c r="J38" t="n">
-        <v>0.09176579252300336</v>
+        <v>0.0860429418889693</v>
       </c>
     </row>
     <row r="39">
@@ -1817,7 +1817,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -1826,26 +1826,26 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Debt service (PPG and IMF only, % of exports of goods, services and primary income)</t>
+          <t>Agricultural irrigated land (% of total agricultural land)</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>0.001119566432627093</v>
+        <v>-0.001638210188683599</v>
       </c>
       <c r="F39" t="n">
-        <v>7.932036232593447</v>
+        <v>2.825695412909495</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09167608042145922</v>
+        <v>-0.08086931982342005</v>
       </c>
       <c r="H39" t="n">
-        <v>0.482253851360434</v>
+        <v>0.5648564518955626</v>
       </c>
       <c r="I39" t="n">
-        <v>0.001583197512433195</v>
+        <v>0.002827326544152605</v>
       </c>
       <c r="J39" t="n">
-        <v>0.09167608042145922</v>
+        <v>0.08086931982342005</v>
       </c>
     </row>
     <row r="40">
@@ -1853,7 +1853,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1862,26 +1862,26 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Level of water stress</t>
+          <t>Adolescents out of school (% of lower secondary school age)</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-0.005200721068841683</v>
+        <v>0.0006964161298487213</v>
       </c>
       <c r="F40" t="n">
-        <v>24.43134774359963</v>
+        <v>1.527776466859174</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.09119046306820373</v>
+        <v>0.07579938565444118</v>
       </c>
       <c r="H40" t="n">
-        <v>0.4883439581878301</v>
+        <v>0.5932866869662309</v>
       </c>
       <c r="I40" t="n">
-        <v>0.007457390114038103</v>
+        <v>0.001295587967241304</v>
       </c>
       <c r="J40" t="n">
-        <v>0.09119046306820373</v>
+        <v>0.07579938565444118</v>
       </c>
     </row>
     <row r="41">
@@ -1889,7 +1889,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1898,26 +1898,26 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Unemployment basic education </t>
+          <t>Unemployment, total (% of total labor force) (modeled ILO estimate)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-0.001077217703648136</v>
+        <v>0.0008922563425915798</v>
       </c>
       <c r="F41" t="n">
-        <v>7.782041338132606</v>
+        <v>5.954478248018569</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.08951630696013409</v>
+        <v>0.07352437602461499</v>
       </c>
       <c r="H41" t="n">
-        <v>0.5039811531035607</v>
+        <v>0.5902137739496943</v>
       </c>
       <c r="I41" t="n">
-        <v>0.00160162288346442</v>
+        <v>0.001646965000704331</v>
       </c>
       <c r="J41" t="n">
-        <v>0.08951630696013409</v>
+        <v>0.07352437602461499</v>
       </c>
     </row>
     <row r="42">
@@ -1925,7 +1925,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -1934,26 +1934,26 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Total alcohol consumption per capita (liters of pure alcohol, projected estimates, 15+ years of age)</t>
+          <t>Population growth (annual %)</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.0005759077958392804</v>
+        <v>-0.0002501056227734946</v>
       </c>
       <c r="F42" t="n">
-        <v>4.874803342995741</v>
+        <v>0.4544433381336891</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07612008231943765</v>
+        <v>-0.0710834676263723</v>
       </c>
       <c r="H42" t="n">
-        <v>0.5532166474967388</v>
+        <v>0.6026442496915771</v>
       </c>
       <c r="I42" t="n">
-        <v>0.0009658883374479065</v>
+        <v>0.0004775930234149255</v>
       </c>
       <c r="J42" t="n">
-        <v>0.07612008231943765</v>
+        <v>0.0710834676263723</v>
       </c>
     </row>
     <row r="43">
@@ -1961,7 +1961,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -1970,26 +1970,26 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Population density</t>
+          <t>Intentional homicides (per 100,000 people)</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.04034830265267867</v>
+        <v>0.0005632140833421185</v>
       </c>
       <c r="F43" t="n">
-        <v>69.23817088067263</v>
+        <v>1.57135826434931</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.0753798857356119</v>
+        <v>0.04679825494060019</v>
       </c>
       <c r="H43" t="n">
-        <v>0.59533907493032</v>
+        <v>0.741820038434039</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0754826981609056</v>
+        <v>0.001700132440019612</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0753798857356119</v>
+        <v>0.04679825494060019</v>
       </c>
     </row>
     <row r="44">
@@ -1997,7 +1997,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2006,26 +2006,26 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Life expectancy at birth, total (years)</t>
+          <t>Expenditure on tertiary education (% of government expenditure on education)</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-0.0004729962336145893</v>
+        <v>0.001640633840361231</v>
       </c>
       <c r="F44" t="n">
-        <v>73.41924277846465</v>
+        <v>17.41532414765129</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.07126920731730295</v>
+        <v>0.03542482163489265</v>
       </c>
       <c r="H44" t="n">
-        <v>0.5884215050281627</v>
+        <v>0.7899582300698023</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0008692325696407644</v>
+        <v>0.006130471701570812</v>
       </c>
       <c r="J44" t="n">
-        <v>0.07126920731730295</v>
+        <v>0.03542482163489265</v>
       </c>
     </row>
     <row r="45">
@@ -2033,7 +2033,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2042,26 +2042,26 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Access to electricity (% of population)</t>
+          <t>Level of water stress</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>0.0002197286337531904</v>
+        <v>-0.00201521241263473</v>
       </c>
       <c r="F45" t="n">
-        <v>98.13517717998494</v>
+        <v>14.739397261392</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03735516255486191</v>
+        <v>-0.02954209875379382</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7807109670888032</v>
+        <v>0.8320635094972118</v>
       </c>
       <c r="I45" t="n">
-        <v>0.0007854866180178788</v>
+        <v>0.009455580955328554</v>
       </c>
       <c r="J45" t="n">
-        <v>0.03735516255486191</v>
+        <v>0.02954209875379382</v>
       </c>
     </row>
     <row r="46">
@@ -2069,7 +2069,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2078,26 +2078,26 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GDP per capita, PPP (constant 2021 international $)</t>
+          <t>Population in the largest city (% of urban population)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-0.09706009970871944</v>
+        <v>0.0007110396281443999</v>
       </c>
       <c r="F46" t="n">
-        <v>16042.78645063455</v>
+        <v>23.77101850696651</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.006565208718045941</v>
+        <v>0.009758236313105597</v>
       </c>
       <c r="H46" t="n">
-        <v>0.9592723211037681</v>
+        <v>0.9425680461832771</v>
       </c>
       <c r="I46" t="n">
-        <v>1.892857492207998</v>
+        <v>0.009824726095973277</v>
       </c>
       <c r="J46" t="n">
-        <v>0.006565208718045941</v>
+        <v>0.009758236313105597</v>
       </c>
     </row>
     <row r="47">
@@ -2105,7 +2105,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2114,26 +2114,26 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Total debt service (% of exports of goods, services and primary income)</t>
+          <t>Agricultural land (% )</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-0.0001276773196174377</v>
+        <v>0.0008964443837984658</v>
       </c>
       <c r="F47" t="n">
-        <v>16.26008812321697</v>
+        <v>37.79474912107186</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.005426478605886477</v>
+        <v>0.009628915975731685</v>
       </c>
       <c r="H47" t="n">
-        <v>0.9674632878447629</v>
+        <v>0.942299285196714</v>
       </c>
       <c r="I47" t="n">
-        <v>0.003116390268107037</v>
+        <v>0.01233071874626055</v>
       </c>
       <c r="J47" t="n">
-        <v>0.005426478605886477</v>
+        <v>0.009628915975731685</v>
       </c>
     </row>
     <row r="48">
@@ -2141,7 +2141,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2150,26 +2150,26 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>government  consumption exp (% of GDP)</t>
+          <t>Cost of business start-up (% of GNI per capita)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>4.288116066396624e-05</v>
+        <v>-0.0001669735382776251</v>
       </c>
       <c r="F48" t="n">
-        <v>15.48561495579207</v>
+        <v>4.036001200202369</v>
       </c>
       <c r="G48" t="n">
-        <v>0.002107350702190189</v>
+        <v>-0.008356029842142138</v>
       </c>
       <c r="H48" t="n">
-        <v>0.9874739303613687</v>
+        <v>0.9503610605698058</v>
       </c>
       <c r="I48" t="n">
-        <v>0.002719159842307782</v>
+        <v>0.002670167416350796</v>
       </c>
       <c r="J48" t="n">
-        <v>0.002107350702190189</v>
+        <v>0.008356029842142138</v>
       </c>
     </row>
     <row r="49">
@@ -2177,7 +2177,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2186,26 +2186,98 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Global_Peace_Index_2023</t>
+          <t>Arable land (% of land area)</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-3.928803429045343e-07</v>
+        <v>-0.0002934795336386188</v>
       </c>
       <c r="F49" t="n">
-        <v>2.134968933415882</v>
+        <v>18.76848071453277</v>
       </c>
       <c r="G49" t="n">
-        <v>-0.0002552526014141132</v>
+        <v>-0.004298229868042914</v>
       </c>
       <c r="H49" t="n">
-        <v>0.9985384157688961</v>
+        <v>0.974225581242941</v>
       </c>
       <c r="I49" t="n">
-        <v>0.0002134462048528713</v>
+        <v>0.009043712401865711</v>
       </c>
       <c r="J49" t="n">
-        <v>0.0002552526014141132</v>
+        <v>0.004298229868042914</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>21</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>immigration_100k</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Electric power consumption (kWh per capita)</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0</v>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>48</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>immigration_100k</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>free</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
